--- a/记忆实战/64卦与36计.xlsx
+++ b/记忆实战/64卦与36计.xlsx
@@ -449,10 +449,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>武林</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>吴仪</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -679,10 +675,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>我在颐和园带着耳机摇头晃脑装疯卖傻</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>捧书坐在池塘边观看小孩子下塘捉鱼</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -779,10 +771,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>老鼠把线咬断损坏了电网被判死刑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>一只怪老虎，生来会跳舞</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -799,10 +787,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>谁能问鼎武林大会？？？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>突然窜出来一直穿着皮革的猴子</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -835,87 +819,103 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>柳宗元旅居永州，天天游山玩水</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吴起看到风来了，赶紧下令火攻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同程网发了好多代金券可以兑换</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吴三桂渐渐失去人心，最终自杀身亡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这个新青年是个海归的漂亮妹妹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>山上长了好多黑木耳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玉兔从天上乘风下落，允许我短暂看一眼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蛇妖白素贞多行善事升天成仙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>从小教导小孩诚立身</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鸿茅药酒临近上市了被查出财务造假，真是釜底抽薪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>噬嗑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>虎贲军堵住了前后门，这对苦命鸳鸯死到临头了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>少林寺和尚联合群众打击剥削百姓的官吏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中兴指责华为不守规矩，实际暗地里积蓄力量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>隔岸观火</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正在打羽毛球，突然起风了，天空变红，看到隔岸起火了，许多小牲畜逃跑了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>石矶娘娘随时可以点石成玉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>十八罗汉拿装满毒虫的蛊毒死了敌军首领</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吃金维他要剥离并震动，打开外壳才适合吃，动作要刚柔并济</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二胡的梁坏了，想换个新的是无望了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>带着耳机摇头晃脑装疯卖傻怡然自得</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>老鼠把线咬断损坏了电网被电死</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吴琳小师妹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吴琳小师妹问鼎恒山派</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>青藏铁路的火车为西藏带来丰富的物资</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>柳宗元旅居永州，天天游山玩水</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>吴起看到风来了，赶紧下令火攻</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>同程网发了好多代金券可以兑换</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>吴三桂渐渐失去人心，最终自杀身亡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>这个新青年是个海归的漂亮妹妹</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>山上长了好多黑木耳</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>玉兔从天上乘风下落，允许我短暂看一眼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蛇妖白素贞多行善事升天成仙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>从小教导小孩诚立身</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>鸿茅药酒临近上市了被查出财务造假，真是釜底抽薪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>噬嗑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>虎贲军堵住了前后门，这对苦命鸳鸯死到临头了</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>少林寺和尚联合群众打击剥削百姓的官吏</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中兴指责华为不守规矩，实际暗地里积蓄力量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>隔岸观火</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>正在打羽毛球，突然起风了，天空变红，看到隔岸起火了，许多小牲畜逃跑了</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>石矶娘娘随时可以点石成玉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>十八罗汉拿装满毒虫的蛊毒死了敌军首领</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>吃金维他要剥离并震动，打开外壳才适合吃，动作要刚柔并济</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>二胡的梁坏了，想换个新的是无望了</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1277,8 +1277,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B17" workbookViewId="0">
-      <selection activeCell="J29" sqref="J29"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I59" sqref="I59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -1291,10 +1291,10 @@
         <v>63</v>
       </c>
       <c r="C1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -1305,10 +1305,10 @@
         <v>64</v>
       </c>
       <c r="C2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -1319,10 +1319,10 @@
         <v>65</v>
       </c>
       <c r="C3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D3" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -1333,10 +1333,10 @@
         <v>66</v>
       </c>
       <c r="C4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D4" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -1347,10 +1347,10 @@
         <v>67</v>
       </c>
       <c r="C5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D5" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -1361,10 +1361,10 @@
         <v>68</v>
       </c>
       <c r="C6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -1375,10 +1375,10 @@
         <v>69</v>
       </c>
       <c r="C7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D7" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -1389,10 +1389,10 @@
         <v>70</v>
       </c>
       <c r="C8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D8" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -1403,10 +1403,10 @@
         <v>71</v>
       </c>
       <c r="C9" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="D9" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -1417,10 +1417,10 @@
         <v>72</v>
       </c>
       <c r="C10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D10" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -1431,10 +1431,10 @@
         <v>73</v>
       </c>
       <c r="C11" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D11" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -1445,10 +1445,10 @@
         <v>74</v>
       </c>
       <c r="C12" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D12" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -1459,10 +1459,10 @@
         <v>75</v>
       </c>
       <c r="C13" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D13" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -1473,10 +1473,10 @@
         <v>76</v>
       </c>
       <c r="C14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D14" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -1487,10 +1487,10 @@
         <v>77</v>
       </c>
       <c r="C15" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D15" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -1501,10 +1501,10 @@
         <v>78</v>
       </c>
       <c r="C16" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D16" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -1515,10 +1515,10 @@
         <v>79</v>
       </c>
       <c r="C17" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D17" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -1529,10 +1529,10 @@
         <v>80</v>
       </c>
       <c r="C18" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D18" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -1543,10 +1543,10 @@
         <v>81</v>
       </c>
       <c r="C19" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D19" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -1557,24 +1557,24 @@
         <v>82</v>
       </c>
       <c r="C20" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D20" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="B21" t="s">
         <v>83</v>
       </c>
       <c r="C21" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D21" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -1585,10 +1585,10 @@
         <v>84</v>
       </c>
       <c r="C22" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D22" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -1599,10 +1599,10 @@
         <v>85</v>
       </c>
       <c r="C23" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D23" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -1613,10 +1613,10 @@
         <v>86</v>
       </c>
       <c r="C24" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D24" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -1627,10 +1627,10 @@
         <v>87</v>
       </c>
       <c r="C25" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D25" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -1641,10 +1641,10 @@
         <v>88</v>
       </c>
       <c r="C26" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D26" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -1655,10 +1655,10 @@
         <v>89</v>
       </c>
       <c r="C27" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D27" t="s">
-        <v>168</v>
+        <v>223</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -1669,10 +1669,10 @@
         <v>90</v>
       </c>
       <c r="C28" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D28" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -1683,10 +1683,10 @@
         <v>91</v>
       </c>
       <c r="C29" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D29" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -1697,10 +1697,10 @@
         <v>92</v>
       </c>
       <c r="C30" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D30" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -1711,10 +1711,10 @@
         <v>93</v>
       </c>
       <c r="C31" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D31" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -1725,10 +1725,10 @@
         <v>94</v>
       </c>
       <c r="C32" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D32" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -1739,10 +1739,10 @@
         <v>95</v>
       </c>
       <c r="C33" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D33" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -1750,13 +1750,13 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C34" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D34" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -1767,10 +1767,10 @@
         <v>96</v>
       </c>
       <c r="C35" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D35" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -1778,13 +1778,13 @@
         <v>34</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C36" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D36" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -1795,7 +1795,7 @@
         <v>97</v>
       </c>
       <c r="D37" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -1806,7 +1806,7 @@
         <v>98</v>
       </c>
       <c r="D38" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -1817,7 +1817,7 @@
         <v>99</v>
       </c>
       <c r="D39" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -1828,7 +1828,7 @@
         <v>100</v>
       </c>
       <c r="D40" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -1839,7 +1839,7 @@
         <v>101</v>
       </c>
       <c r="D41" t="s">
-        <v>193</v>
+        <v>224</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
@@ -1850,7 +1850,7 @@
         <v>102</v>
       </c>
       <c r="D42" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -1861,7 +1861,7 @@
         <v>103</v>
       </c>
       <c r="D43" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
@@ -1872,7 +1872,7 @@
         <v>104</v>
       </c>
       <c r="D44" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
@@ -1883,7 +1883,7 @@
         <v>105</v>
       </c>
       <c r="D45" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
@@ -1894,7 +1894,7 @@
         <v>106</v>
       </c>
       <c r="D46" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
@@ -1905,7 +1905,7 @@
         <v>107</v>
       </c>
       <c r="D47" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
@@ -1916,7 +1916,7 @@
         <v>108</v>
       </c>
       <c r="D48" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
@@ -1927,7 +1927,7 @@
         <v>109</v>
       </c>
       <c r="D49" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
@@ -1935,10 +1935,10 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>110</v>
+        <v>225</v>
       </c>
       <c r="D50" t="s">
-        <v>198</v>
+        <v>226</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
@@ -1946,10 +1946,10 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D51" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
@@ -1957,10 +1957,10 @@
         <v>50</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D52" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
@@ -1968,10 +1968,10 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D53" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
@@ -1979,10 +1979,10 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D54" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
@@ -1990,10 +1990,10 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D55" t="s">
-        <v>207</v>
+        <v>227</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
@@ -2001,10 +2001,10 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D56" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
@@ -2012,10 +2012,10 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D57" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
@@ -2023,10 +2023,10 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D58" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
@@ -2034,10 +2034,10 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D59" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
@@ -2045,10 +2045,10 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D60" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
@@ -2056,10 +2056,10 @@
         <v>59</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D61" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
@@ -2067,10 +2067,10 @@
         <v>60</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D62" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
@@ -2078,10 +2078,10 @@
         <v>61</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D63" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
@@ -2089,10 +2089,10 @@
         <v>62</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D64" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
     </row>
   </sheetData>

--- a/记忆实战/64卦与36计.xlsx
+++ b/记忆实战/64卦与36计.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="292">
   <si>
     <t>乾</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -158,10 +158,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>癸</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>蹇</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -651,14 +647,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>双双听到秘闻后遁逃告密</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>岳灵珊在恒山顶弹琴拒敌</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>三一重工派4大美女在咸阳公关</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -679,10 +667,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>借道去攻打别人，闹钟响了返回来攻打自己</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>果果去超市逛，顺手牵了个玩具，我们问她是不是偷来的她矢口否认</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -695,22 +679,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>石榴姐躺在地上，边上停着一辆河南的车</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>小叔去泰国代购李子，回来后变成了桃子</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>与人争讼去鸣鼓吹口哨，左右开工引人注目</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>胡老师拄着拐杖往地上一敲就冒出来比特币</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>超级大树长上云稍</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -735,30 +707,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>公安收了黑钱，笑着说我肯定履行义务，其实不作为</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>借太平间的钥匙去找俞大猷的尸体</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>绅士奥巴马</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>奥巴马不得已90弯腰向抒田鞠躬</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>明姨拿着三鹿奶粉走了</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>山鸡不顾自己的家人反对要和陈浩南拜把子</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>三八包租婆运用狮吼功造成了秋葵台风</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -767,22 +723,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>过年了，解开绑鸡的绳子去杀鸡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一只怪老虎，生来会跳舞</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>益阳的牛肉只要一炮块</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>文萃报上一条龙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>吴仪探望汶川地震的灾民</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -799,30 +743,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>把硫酸泼到脸上毁容了，已经发生了还能怎么办</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>女儿一不小心上课迟到被记过了</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>律师虽然做了辩护，但结果仍未可知，焦急等待中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>榴莲超级好吃，停不下来，要节制点啊</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>吴学究用水攻，敌军被冲得涣散</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>柳宗元旅居永州，天天游山玩水</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>吴起看到风来了，赶紧下令火攻</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -831,10 +755,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>吴三桂渐渐失去人心，最终自杀身亡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>这个新青年是个海归的漂亮妹妹</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -847,10 +767,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>蛇妖白素贞多行善事升天成仙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>从小教导小孩诚立身</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -859,63 +775,403 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>少林寺和尚联合群众打击剥削百姓的官吏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>隔岸观火</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>十八罗汉拿装满毒虫的蛊毒死了敌军首领</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吃金维他要剥离并震动，打开外壳才适合吃，动作要刚柔并济</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>带着耳机摇头晃脑装疯卖傻怡然自得</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吴琳小师妹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>乾为天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地为坤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水雷屯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>山水蒙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水天需</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天风姤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天山遁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>双双听到秘闻后遁逃到天山去告密</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天地否</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地天泰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>风地观</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>山地剥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火地晋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火天大有</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兑为泽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>泽水困</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>泽地萃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>泽山咸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水山蹇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水风井</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地山谦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雷山小过</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雷泽归妹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>离为火</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火山旅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>柳宗元永州呆腻了，出去旅游看火山喷发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火风鼎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吴琳小师妹问鼎恒山派，用火攻打败了梅超风</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火水未济</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>风水涣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吴学究懂风水学，看好地形用水攻，敌军被冲得涣散</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天水讼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天水郡有人争讼鸣鼓吹口哨，左右开工引人注目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天火同人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>震为雷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雷地豫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>石榴姐太雷人了，大字躺在地上，边上停着一辆河南的车</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雷水解</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>过年了，解开绑鸡的绳子去杀鸡。先放炮震天响，再用热水</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雷风恒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>岳灵珊在恒山顶弹琴拒敌，大敌当前雷锋来助阵了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地风生</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蛇妖白素贞多行善事升为神仙，在地上化为人形乘风升天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>泽风大过</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>泽雷随</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>石矶娘娘可以点石成玉,把随从公孙豹扔到沼泽里，雷劈成石头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巽为风</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>风天小畜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>风火家人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>山鸡不顾自己的家人反对要去烽火乡和陈浩南拜把子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>风雷益</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天雷无妄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天雷劈中了二胡，梁坏了，想换个新的是无望了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>噬嗑</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>虎贲军堵住了前后门，这对苦命鸳鸯死到临头了</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>少林寺和尚联合群众打击剥削百姓的官吏</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中兴指责华为不守规矩，实际暗地里积蓄力量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>隔岸观火</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>正在打羽毛球，突然起风了，天空变红，看到隔岸起火了，许多小牲畜逃跑了</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>石矶娘娘随时可以点石成玉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>十八罗汉拿装满毒虫的蛊毒死了敌军首领</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>吃金维他要剥离并震动，打开外壳才适合吃，动作要刚柔并济</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>二胡的梁坏了，想换个新的是无望了</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>带着耳机摇头晃脑装疯卖傻怡然自得</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>老鼠把线咬断损坏了电网被电死</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>吴琳小师妹</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>吴琳小师妹问鼎恒山派</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>青藏铁路的火车为西藏带来丰富的物资</t>
+    <t>火雷噬嗑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>山雷颐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>山风蛊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>坎为水</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水泽节</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水泽节上功应大量榴莲，超级好吃，停不下来，要节制点啊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>泽火革</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雷火丰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雷州来的火车为西藏带来丰富的物资</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地火明夷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地水师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水地比</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>艮为山</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>山火贲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>山上起火为号，一声令下虎贲军堵住了前后门，这对苦命鸳鸯死到临头了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>山天大畜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中兴指责华为不守规矩，实际暗地背靠大山天天大畜力量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>山泽损</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>老鼠把线咬断损坏了电网被电死，扔到山上的沼泽里去吧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>睽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火泽睽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天泽履</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>泽天夬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>风泽中孚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>风山渐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吴三桂渐渐失去人心，最终回到峰山坳自杀身亡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地雷复</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>借道去攻打别人，踩到地雷损失严重，返回来攻打自己，又踩到了地雷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地泽临</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雷天大壮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奥巴马不得已90弯腰向抒田鞠躬，雷神降天火助威</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一只怪老虎，生来会跳舞，奶茶妹妹来伴舞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水火既济</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>把硫酸泼到脸上毁容了，已经发生了还能怎么办。水火不容，切忌用水冲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>律师虽然做了辩护，但结果仍未可知，红颜祸水</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>胡老师拄着拐杖往地上一敲就出水</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正在打羽毛球，看到隔岸起火的景象：起风了，天空变红，小牲畜逃跑了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物竞天择的规律，公安收了黑钱，笑着说我肯定履行义务，其实不作为</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>借太平间的钥匙去找俞大猷的尸体火化，火快没了添点柴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文萃报上说发现了一条龙，在沼泽地里</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1275,824 +1531,1016 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D64"/>
+  <dimension ref="A1:E64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I59" sqref="I59"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="E45" sqref="E45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>63</v>
+        <v>198</v>
       </c>
       <c r="C1" t="s">
-        <v>126</v>
+        <v>62</v>
       </c>
       <c r="D1" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+      <c r="E1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>64</v>
+        <v>199</v>
       </c>
       <c r="C2" t="s">
-        <v>125</v>
+        <v>63</v>
       </c>
       <c r="D2" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+      <c r="E2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>65</v>
+        <v>200</v>
       </c>
       <c r="C3" t="s">
-        <v>127</v>
+        <v>64</v>
       </c>
       <c r="D3" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <v>126</v>
+      </c>
+      <c r="E3" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>66</v>
+        <v>201</v>
       </c>
       <c r="C4" t="s">
-        <v>128</v>
+        <v>65</v>
       </c>
       <c r="D4" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+        <v>127</v>
+      </c>
+      <c r="E4" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>67</v>
+        <v>202</v>
       </c>
       <c r="C5" t="s">
-        <v>129</v>
+        <v>66</v>
       </c>
       <c r="D5" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+        <v>128</v>
+      </c>
+      <c r="E5" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>68</v>
+        <v>229</v>
       </c>
       <c r="C6" t="s">
-        <v>130</v>
+        <v>67</v>
       </c>
       <c r="D6" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+        <v>129</v>
+      </c>
+      <c r="E6" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>69</v>
+        <v>262</v>
       </c>
       <c r="C7" t="s">
-        <v>131</v>
+        <v>68</v>
       </c>
       <c r="D7" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+        <v>130</v>
+      </c>
+      <c r="E7" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>70</v>
+        <v>263</v>
       </c>
       <c r="C8" t="s">
-        <v>132</v>
+        <v>69</v>
       </c>
       <c r="D8" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+        <v>131</v>
+      </c>
+      <c r="E8" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>71</v>
+        <v>245</v>
       </c>
       <c r="C9" t="s">
-        <v>217</v>
+        <v>70</v>
       </c>
       <c r="D9" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+        <v>193</v>
+      </c>
+      <c r="E9" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>72</v>
+        <v>273</v>
       </c>
       <c r="C10" t="s">
-        <v>133</v>
+        <v>71</v>
       </c>
       <c r="D10" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+        <v>132</v>
+      </c>
+      <c r="E10" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>73</v>
+        <v>207</v>
       </c>
       <c r="C11" t="s">
-        <v>134</v>
+        <v>72</v>
       </c>
       <c r="D11" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+        <v>133</v>
+      </c>
+      <c r="E11" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>74</v>
+        <v>206</v>
       </c>
       <c r="C12" t="s">
-        <v>135</v>
+        <v>73</v>
       </c>
       <c r="D12" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+        <v>134</v>
+      </c>
+      <c r="E12" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>75</v>
+        <v>231</v>
       </c>
       <c r="C13" t="s">
-        <v>136</v>
+        <v>74</v>
       </c>
       <c r="D13" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+        <v>135</v>
+      </c>
+      <c r="E13" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>76</v>
+        <v>211</v>
       </c>
       <c r="C14" t="s">
-        <v>137</v>
+        <v>75</v>
       </c>
       <c r="D14" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+        <v>136</v>
+      </c>
+      <c r="E14" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>77</v>
+        <v>218</v>
       </c>
       <c r="C15" t="s">
-        <v>138</v>
+        <v>76</v>
       </c>
       <c r="D15" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+        <v>137</v>
+      </c>
+      <c r="E15" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>78</v>
+        <v>233</v>
       </c>
       <c r="C16" t="s">
-        <v>139</v>
+        <v>77</v>
       </c>
       <c r="D16" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+      <c r="E16" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>79</v>
+        <v>242</v>
       </c>
       <c r="C17" t="s">
-        <v>140</v>
+        <v>78</v>
       </c>
       <c r="D17" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+      <c r="E17" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>80</v>
+        <v>254</v>
       </c>
       <c r="C18" t="s">
-        <v>141</v>
+        <v>79</v>
       </c>
       <c r="D18" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+        <v>140</v>
+      </c>
+      <c r="E18" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>81</v>
+        <v>280</v>
       </c>
       <c r="C19" t="s">
-        <v>142</v>
+        <v>80</v>
       </c>
       <c r="D19" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+      <c r="E19" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>19</v>
       </c>
       <c r="B20" t="s">
+        <v>208</v>
+      </c>
+      <c r="C20" t="s">
+        <v>81</v>
+      </c>
+      <c r="D20" t="s">
+        <v>142</v>
+      </c>
+      <c r="E20" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>251</v>
+      </c>
+      <c r="B21" t="s">
+        <v>252</v>
+      </c>
+      <c r="C21" t="s">
         <v>82</v>
       </c>
-      <c r="C20" t="s">
+      <c r="D21" t="s">
         <v>143</v>
       </c>
-      <c r="D20" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>213</v>
-      </c>
-      <c r="B21" t="s">
-        <v>83</v>
-      </c>
-      <c r="C21" t="s">
-        <v>144</v>
-      </c>
-      <c r="D21" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E21" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>84</v>
+        <v>265</v>
       </c>
       <c r="C22" t="s">
-        <v>145</v>
+        <v>83</v>
       </c>
       <c r="D22" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+        <v>144</v>
+      </c>
+      <c r="E22" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>85</v>
+        <v>209</v>
       </c>
       <c r="C23" t="s">
-        <v>146</v>
+        <v>84</v>
       </c>
       <c r="D23" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+        <v>145</v>
+      </c>
+      <c r="E23" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>86</v>
+        <v>278</v>
       </c>
       <c r="C24" t="s">
-        <v>147</v>
+        <v>85</v>
       </c>
       <c r="D24" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+        <v>146</v>
+      </c>
+      <c r="E24" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>87</v>
+        <v>249</v>
       </c>
       <c r="C25" t="s">
-        <v>148</v>
+        <v>86</v>
       </c>
       <c r="D25" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+        <v>147</v>
+      </c>
+      <c r="E25" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>88</v>
+        <v>267</v>
       </c>
       <c r="C26" t="s">
-        <v>149</v>
+        <v>87</v>
       </c>
       <c r="D26" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+        <v>148</v>
+      </c>
+      <c r="E26" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>89</v>
+        <v>253</v>
       </c>
       <c r="C27" t="s">
-        <v>150</v>
+        <v>88</v>
       </c>
       <c r="D27" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+        <v>149</v>
+      </c>
+      <c r="E27" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>90</v>
+        <v>241</v>
       </c>
       <c r="C28" t="s">
-        <v>151</v>
+        <v>89</v>
       </c>
       <c r="D28" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+        <v>150</v>
+      </c>
+      <c r="E28" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>91</v>
+        <v>255</v>
       </c>
       <c r="C29" t="s">
-        <v>152</v>
+        <v>90</v>
       </c>
       <c r="D29" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+        <v>151</v>
+      </c>
+      <c r="E29" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>92</v>
+        <v>221</v>
       </c>
       <c r="C30" t="s">
-        <v>153</v>
+        <v>91</v>
       </c>
       <c r="D30" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+        <v>152</v>
+      </c>
+      <c r="E30" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>93</v>
+        <v>215</v>
       </c>
       <c r="C31" t="s">
-        <v>154</v>
+        <v>92</v>
       </c>
       <c r="D31" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+      <c r="E31" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>29</v>
       </c>
       <c r="B32" t="s">
-        <v>94</v>
+        <v>237</v>
       </c>
       <c r="C32" t="s">
-        <v>155</v>
+        <v>93</v>
       </c>
       <c r="D32" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+      <c r="E32" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>95</v>
+        <v>204</v>
       </c>
       <c r="C33" t="s">
-        <v>156</v>
+        <v>94</v>
       </c>
       <c r="D33" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+        <v>155</v>
+      </c>
+      <c r="E33" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>184</v>
+        <v>281</v>
       </c>
       <c r="C34" t="s">
-        <v>157</v>
+        <v>175</v>
       </c>
       <c r="D34" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+        <v>156</v>
+      </c>
+      <c r="E34" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>96</v>
+        <v>210</v>
       </c>
       <c r="C35" t="s">
-        <v>158</v>
+        <v>95</v>
       </c>
       <c r="D35" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+        <v>157</v>
+      </c>
+      <c r="E35" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>34</v>
       </c>
-      <c r="B36" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="C36" t="s">
-        <v>159</v>
+      <c r="B36" t="s">
+        <v>261</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>119</v>
       </c>
       <c r="D36" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+        <v>158</v>
+      </c>
+      <c r="E36" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>35</v>
       </c>
       <c r="B37" t="s">
+        <v>246</v>
+      </c>
+      <c r="C37" t="s">
+        <v>96</v>
+      </c>
+      <c r="E37" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>271</v>
+      </c>
+      <c r="B38" t="s">
+        <v>272</v>
+      </c>
+      <c r="C38" t="s">
         <v>97</v>
       </c>
-      <c r="D37" t="s">
+      <c r="E38" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>36</v>
+      </c>
+      <c r="B39" t="s">
+        <v>216</v>
+      </c>
+      <c r="C39" t="s">
+        <v>98</v>
+      </c>
+      <c r="E39" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>37</v>
+      </c>
+      <c r="B40" t="s">
+        <v>235</v>
+      </c>
+      <c r="C40" t="s">
+        <v>99</v>
+      </c>
+      <c r="E40" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>38</v>
+      </c>
+      <c r="B41" t="s">
+        <v>269</v>
+      </c>
+      <c r="C41" t="s">
+        <v>100</v>
+      </c>
+      <c r="E41" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>39</v>
+      </c>
+      <c r="B42" t="s">
+        <v>248</v>
+      </c>
+      <c r="C42" t="s">
+        <v>101</v>
+      </c>
+      <c r="E42" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>40</v>
+      </c>
+      <c r="B43" t="s">
+        <v>274</v>
+      </c>
+      <c r="C43" t="s">
+        <v>102</v>
+      </c>
+      <c r="E43" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>41</v>
+      </c>
+      <c r="B44" t="s">
+        <v>203</v>
+      </c>
+      <c r="C44" t="s">
+        <v>103</v>
+      </c>
+      <c r="E44" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>42</v>
+      </c>
+      <c r="B45" t="s">
+        <v>214</v>
+      </c>
+      <c r="C45" t="s">
+        <v>104</v>
+      </c>
+      <c r="E45" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>43</v>
+      </c>
+      <c r="B46" t="s">
+        <v>239</v>
+      </c>
+      <c r="C46" t="s">
+        <v>105</v>
+      </c>
+      <c r="E46" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>44</v>
+      </c>
+      <c r="B47" t="s">
+        <v>213</v>
+      </c>
+      <c r="C47" t="s">
+        <v>106</v>
+      </c>
+      <c r="E47" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>45</v>
+      </c>
+      <c r="B48" t="s">
+        <v>217</v>
+      </c>
+      <c r="C48" t="s">
+        <v>107</v>
+      </c>
+      <c r="E48" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>46</v>
+      </c>
+      <c r="B49" t="s">
+        <v>258</v>
+      </c>
+      <c r="C49" t="s">
+        <v>108</v>
+      </c>
+      <c r="E49" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>47</v>
+      </c>
+      <c r="B50" t="s">
+        <v>224</v>
+      </c>
+      <c r="C50" t="s">
+        <v>197</v>
+      </c>
+      <c r="E50" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>48</v>
+      </c>
+      <c r="B51" t="s">
+        <v>232</v>
+      </c>
+      <c r="C51" t="s">
+        <v>109</v>
+      </c>
+      <c r="E51" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>49</v>
+      </c>
+      <c r="B52" t="s">
+        <v>264</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="E52" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>50</v>
+      </c>
+      <c r="B53" t="s">
+        <v>276</v>
+      </c>
+      <c r="C53" t="s">
+        <v>110</v>
+      </c>
+      <c r="E53" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>51</v>
+      </c>
+      <c r="B54" t="s">
+        <v>220</v>
+      </c>
+      <c r="C54" t="s">
+        <v>111</v>
+      </c>
+      <c r="E54" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>36</v>
-      </c>
-      <c r="B38" t="s">
-        <v>98</v>
-      </c>
-      <c r="D38" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>37</v>
-      </c>
-      <c r="B39" t="s">
-        <v>99</v>
-      </c>
-      <c r="D39" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>38</v>
-      </c>
-      <c r="B40" t="s">
-        <v>100</v>
-      </c>
-      <c r="D40" t="s">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>52</v>
+      </c>
+      <c r="B55" t="s">
+        <v>259</v>
+      </c>
+      <c r="C55" t="s">
+        <v>112</v>
+      </c>
+      <c r="E55" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>53</v>
+      </c>
+      <c r="B56" t="s">
+        <v>222</v>
+      </c>
+      <c r="C56" t="s">
+        <v>113</v>
+      </c>
+      <c r="E56" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>54</v>
+      </c>
+      <c r="B57" t="s">
+        <v>244</v>
+      </c>
+      <c r="C57" t="s">
+        <v>114</v>
+      </c>
+      <c r="E57" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>55</v>
+      </c>
+      <c r="B58" t="s">
+        <v>212</v>
+      </c>
+      <c r="C58" t="s">
+        <v>115</v>
+      </c>
+      <c r="E58" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>56</v>
+      </c>
+      <c r="B59" t="s">
+        <v>227</v>
+      </c>
+      <c r="C59" t="s">
+        <v>116</v>
+      </c>
+      <c r="E59" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>57</v>
+      </c>
+      <c r="B60" t="s">
+        <v>256</v>
+      </c>
+      <c r="C60" t="s">
+        <v>117</v>
+      </c>
+      <c r="E60" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>58</v>
+      </c>
+      <c r="B61" t="s">
+        <v>275</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E61" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>39</v>
-      </c>
-      <c r="B41" t="s">
-        <v>101</v>
-      </c>
-      <c r="D41" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>40</v>
-      </c>
-      <c r="B42" t="s">
-        <v>102</v>
-      </c>
-      <c r="D42" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>41</v>
-      </c>
-      <c r="B43" t="s">
-        <v>103</v>
-      </c>
-      <c r="D43" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>42</v>
-      </c>
-      <c r="B44" t="s">
-        <v>104</v>
-      </c>
-      <c r="D44" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>43</v>
-      </c>
-      <c r="B45" t="s">
-        <v>105</v>
-      </c>
-      <c r="D45" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>44</v>
-      </c>
-      <c r="B46" t="s">
-        <v>106</v>
-      </c>
-      <c r="D46" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>45</v>
-      </c>
-      <c r="B47" t="s">
-        <v>107</v>
-      </c>
-      <c r="D47" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>46</v>
-      </c>
-      <c r="B48" t="s">
-        <v>108</v>
-      </c>
-      <c r="D48" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>47</v>
-      </c>
-      <c r="B49" t="s">
-        <v>109</v>
-      </c>
-      <c r="D49" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>48</v>
-      </c>
-      <c r="B50" t="s">
-        <v>225</v>
-      </c>
-      <c r="D50" t="s">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>59</v>
+      </c>
+      <c r="B62" t="s">
+        <v>219</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E62" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>60</v>
+      </c>
+      <c r="B63" t="s">
+        <v>284</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E63" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>61</v>
+      </c>
+      <c r="B64" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>49</v>
-      </c>
-      <c r="B51" t="s">
-        <v>110</v>
-      </c>
-      <c r="D51" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>50</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="D52" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>51</v>
-      </c>
-      <c r="B53" t="s">
-        <v>111</v>
-      </c>
-      <c r="D53" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>52</v>
-      </c>
-      <c r="B54" t="s">
-        <v>112</v>
-      </c>
-      <c r="D54" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>53</v>
-      </c>
-      <c r="B55" t="s">
-        <v>113</v>
-      </c>
-      <c r="D55" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>54</v>
-      </c>
-      <c r="B56" t="s">
-        <v>114</v>
-      </c>
-      <c r="D56" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>55</v>
-      </c>
-      <c r="B57" t="s">
-        <v>115</v>
-      </c>
-      <c r="D57" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>56</v>
-      </c>
-      <c r="B58" t="s">
-        <v>116</v>
-      </c>
-      <c r="D58" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>57</v>
-      </c>
-      <c r="B59" t="s">
-        <v>117</v>
-      </c>
-      <c r="D59" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>58</v>
-      </c>
-      <c r="B60" t="s">
-        <v>118</v>
-      </c>
-      <c r="D60" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>59</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="D61" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>60</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="D62" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>61</v>
-      </c>
-      <c r="B63" s="1" t="s">
+      <c r="C64" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="D63" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>62</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="D64" t="s">
-        <v>200</v>
+      <c r="E64" t="s">
+        <v>286</v>
       </c>
     </row>
   </sheetData>

--- a/记忆实战/64卦与36计.xlsx
+++ b/记忆实战/64卦与36计.xlsx
@@ -469,10 +469,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>同程网</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>吴用</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -643,14 +639,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>晋商不停倒卖珊瑚珠宝</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>三一重工派4大美女在咸阳公关</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>地震了，我抢了别人的三菱逃离深圳</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -659,22 +647,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>华为销售和人密谈上屋抽梯被记大过</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>捧书坐在池塘边观看小孩子下塘捉鱼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>果果去超市逛，顺手牵了个玩具，我们问她是不是偷来的她矢口否认</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>和朋友一起去草地里玩，被蛇咬伤回家用药膳治疗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>彭谦带个鹦鹉上山去兜老虎</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -711,50 +687,18 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>明姨拿着三鹿奶粉走了</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>三八包租婆运用狮吼功造成了秋葵台风</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蹇叔吃了三九胃泰不哭了</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>益阳的牛肉只要一炮块</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>吴仪探望汶川地震的灾民</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>突然窜出来一直穿着皮革的猴子</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>把羊扔到井里让它早点死吧</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>47集团军长途奔袭人困马乏</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>女儿一不小心上课迟到被记过了</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>吴起看到风来了，赶紧下令火攻</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>同程网发了好多代金券可以兑换</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>这个新青年是个海归的漂亮妹妹</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -763,415 +707,2461 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>玉兔从天上乘风下落，允许我短暂看一眼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>从小教导小孩诚立身</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>鸿茅药酒临近上市了被查出财务造假，真是釜底抽薪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>少林寺和尚联合群众打击剥削百姓的官吏</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>吴琳小师妹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>乾为天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地为坤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水雷屯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>山水蒙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水天需</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天风姤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天山遁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天地否</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地天泰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>风地观</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>山地剥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火地晋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火天大有</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兑为泽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>泽水困</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>泽地萃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>泽山咸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水山蹇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水风井</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地山谦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雷山小过</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雷泽归妹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>离为火</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火山旅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火风鼎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火水未济</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>风水涣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天水讼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天火同人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>震为雷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雷地豫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雷水解</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雷风恒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>泽风大过</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>泽雷随</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巽为风</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>风天小畜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>风火家人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>风雷益</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天雷无妄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>噬嗑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火雷噬嗑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>山雷颐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>山风蛊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>坎为水</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水泽节</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>泽火革</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雷火丰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地火明夷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地水师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水地比</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>艮为山</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>山火贲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>山天大畜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>山泽损</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>睽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火泽睽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天泽履</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>泽天夬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>风泽中孚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>风山渐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地雷复</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>借道去攻打别人，踩到地雷损失严重，返回来攻打自己，又踩到了地雷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地泽临</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雷天大壮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一只怪老虎，生来会跳舞，奶茶妹妹来伴舞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水火既济</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>胡老师拄着拐杖往地上一敲就出水</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文萃报上说发现了一条龙，在沼泽地里</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>隔岸观火</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>十八罗汉拿装满毒虫的蛊毒死了敌军首领</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>吃金维他要剥离并震动，打开外壳才适合吃，动作要刚柔并济</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>带着耳机摇头晃脑装疯卖傻怡然自得</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>吴琳小师妹</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>乾为天</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>地为坤</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>水雷屯</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>山水蒙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>水天需</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>天风姤</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>天山遁</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>双双听到秘闻后遁逃到天山去告密</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>天地否</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>地天泰</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>风地观</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>山地剥</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>火地晋</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>火天大有</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>兑为泽</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>泽水困</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>泽地萃</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>泽山咸</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>水山蹇</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>水风井</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>地山谦</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>雷山小过</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>雷泽归妹</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>离为火</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>火山旅</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>柳宗元永州呆腻了，出去旅游看火山喷发</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>火风鼎</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>吴琳小师妹问鼎恒山派，用火攻打败了梅超风</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>火水未济</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>风水涣</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>吴学究懂风水学，看好地形用水攻，敌军被冲得涣散</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>天水讼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>天水郡有人争讼鸣鼓吹口哨，左右开工引人注目</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>天火同人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>震为雷</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>雷地豫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>石榴姐太雷人了，大字躺在地上，边上停着一辆河南的车</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>雷水解</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>过年了，解开绑鸡的绳子去杀鸡。先放炮震天响，再用热水</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>雷风恒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>岳灵珊在恒山顶弹琴拒敌，大敌当前雷锋来助阵了</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>地风生</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蛇妖白素贞多行善事升为神仙，在地上化为人形乘风升天</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>泽风大过</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>泽雷随</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>石矶娘娘可以点石成玉,把随从公孙豹扔到沼泽里，雷劈成石头</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>巽为风</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>风天小畜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>风火家人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>山鸡不顾自己的家人反对要去烽火乡和陈浩南拜把子</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>风雷益</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>天雷无妄</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>天雷劈中了二胡，梁坏了，想换个新的是无望了</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>噬嗑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>火雷噬嗑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>山雷颐</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>山风蛊</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>坎为水</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>水泽节</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>水泽节上功应大量榴莲，超级好吃，停不下来，要节制点啊</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>泽火革</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>雷火丰</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>雷州来的火车为西藏带来丰富的物资</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>地火明夷</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>地水师</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>水地比</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>艮为山</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>山火贲</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>山上起火为号，一声令下虎贲军堵住了前后门，这对苦命鸳鸯死到临头了</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>山天大畜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中兴指责华为不守规矩，实际暗地背靠大山天天大畜力量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>山泽损</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>老鼠把线咬断损坏了电网被电死，扔到山上的沼泽里去吧</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>睽</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>火泽睽</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>天泽履</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>泽天夬</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>风泽中孚</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>风山渐</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>吴三桂渐渐失去人心，最终回到峰山坳自杀身亡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>地雷复</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>借道去攻打别人，踩到地雷损失严重，返回来攻打自己，又踩到了地雷</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>地泽临</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>雷天大壮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>奥巴马不得已90弯腰向抒田鞠躬，雷神降天火助威</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一只怪老虎，生来会跳舞，奶茶妹妹来伴舞</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>水火既济</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>把硫酸泼到脸上毁容了，已经发生了还能怎么办。水火不容，切忌用水冲</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>律师虽然做了辩护，但结果仍未可知，红颜祸水</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>胡老师拄着拐杖往地上一敲就出水</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>正在打羽毛球，看到隔岸起火的景象：起风了，天空变红，小牲畜逃跑了</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>物竞天择的规律，公安收了黑钱，笑着说我肯定履行义务，其实不作为</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>借太平间的钥匙去找俞大猷的尸体火化，火快没了添点柴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>文萃报上说发现了一条龙，在沼泽地里</t>
+    <r>
+      <t>捧书坐在池塘边有</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>风</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>地</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>方</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>观</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>看小孩子下塘捉鱼</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>十八罗汉拿装满毒虫的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>蛊</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>毒死了敌军首领，再</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>煽风</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>点火烧了敌营</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>石矶娘娘可以点石成玉,把</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>随</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>从公孙豹扔到沼</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>泽</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>里，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>雷</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>劈成石头</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>石榴姐</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>雷</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>人地大字躺在</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>地</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>上，边上停着一辆</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>河南</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>的车</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>借太平间的钥匙去找俞</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>大猷</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>的尸体火化，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>火</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>快没了</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>添</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>点柴</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>公安收了黑钱，接警不</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>履</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>行义务。物竞</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>天择</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>的规律，谁有钱为谁忙</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>正在打羽毛球，看到隔岸起火的景象：起</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>风</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>了，小</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>牲畜</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>都被吹到</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>天</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>上去了</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>金维他的壳很硬，要先</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>火</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>烧再</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>雷</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>劈，打开外壳才</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>适合</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>吃</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>点起</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>山火</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>为号，一声令下虎</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>贲</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>军堵住了前后门，这对苦命鸳鸯死到临头了</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>二胡造</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>天雷</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>劈坏了梁，想换个新的是</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>无望</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>了</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>中兴指责华为不守规矩，实际暗地背靠大</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>山</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>整</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>天大畜</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>力量</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>华为销售和人密谈上屋抽梯，因</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>责</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>备乔</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>峰</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>被记</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>大过</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>台上带着耳机摇头晃脑</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>怡</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>然自得，台下人</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>山</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>人海掌声</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>雷</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>动</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>天水</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>郡有人争讼鸣鼓吹口哨，左右开工引人注目</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同别人一起去草地里玩，被蛇咬伤回家用药膳治疗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>鸿茅药酒被查造假，汉武</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>帝</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>选</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>择临</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>近的酒店，真是釜底抽薪</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>三一重工派苏</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>泽</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>斌从</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>山</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>西赶往</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>咸</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>阳公关</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>双双听到秘闻后</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>遁</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>逃到</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>天山</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>去告密</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>岳灵珊弹琴拒敌失败，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>雷锋</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>来</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>衡</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>山助阵了</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>打</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>雷</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>天</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>气奥巴马不得已90弯腰向抒田鞠躬借伞</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>地</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>上起</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>火</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>了，明姨拿着三鹿奶粉走了</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>山鸡不顾自己的家人反对要去</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>烽火</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>乡和陈浩南拜把子</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>包租婆运用狮吼功吐</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>火</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>到沼</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>泽</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>中造成了秋葵台风</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>过年杀鸡步骤：先</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>擂</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>鼓祭祖，再用热</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>水</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>冲，再</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>解</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>绑拔鸡毛</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>玉兔从</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>天</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>上乘</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>风</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>下落让我看个</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>够</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地风升</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>白娘子多行善事平</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>地</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>生</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>风升</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>级成仙</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>47集团军长途奔袭人困马乏，只能喝沼</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>泽水</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>解渴</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>吴三桂</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>渐</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>失人心，回到</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>峰山</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>坳自杀身亡</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>雷</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>州来的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>火</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>车为西藏带来</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>丰</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>富的物资</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>柳宗元永州呆腻了，出去</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>旅</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>游看</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>火山</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>喷发</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>吴学究懂</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>风水</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>学，还可以召</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>唤</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>神龙</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>水泽节</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>上功应大量榴莲，超级好吃，停不下来</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>女儿去</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>雷山</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>拜佛被我党记</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>小过</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>了</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>律师做了辩护，但结果仍未可知，红颜</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>祸水</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>选</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>择</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>一只很</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>火</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>的猴子穿上皮</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>革</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>登场</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>风</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>干的牛肉</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>擂</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>成粉末每日服用有</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>益</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>身体</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>米老鼠跑到</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>山</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>上的沼</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>泽</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>里寻找</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>损</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>坏的唐老鸭</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>蹇叔吃了三九胃泰靠在一颗</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>水杉</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>上不哭了</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>晋商找了个</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>伙</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>计在</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>地</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>下钱庄倒卖珊瑚</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>疯子</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>教导小孩从小要诚立身，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>终</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>得</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>福</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>报</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>同程网发了好多代金券可以</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>兑</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>换</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同程杨幂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>吴琳小师妹用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>火</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>攻打败了梅超</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>风</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，问</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>鼎</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>武林</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>硫酸已经泼到脸上，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>水火</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>不容，切忌用水冲</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1179,7 +3169,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1198,6 +3188,38 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -1224,9 +3246,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1533,1014 +3557,1014 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="E45" sqref="E45"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="M56" sqref="M56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>198</v>
+        <v>177</v>
       </c>
       <c r="C1" t="s">
         <v>62</v>
       </c>
       <c r="D1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>199</v>
+        <v>178</v>
       </c>
       <c r="C2" t="s">
         <v>63</v>
       </c>
       <c r="D2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E2" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>200</v>
+        <v>179</v>
       </c>
       <c r="C3" t="s">
         <v>64</v>
       </c>
       <c r="D3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E3" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>201</v>
+        <v>180</v>
       </c>
       <c r="C4" t="s">
         <v>65</v>
       </c>
       <c r="D4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E4" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="C5" t="s">
         <v>66</v>
       </c>
       <c r="D5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E5" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>229</v>
+        <v>204</v>
       </c>
       <c r="C6" t="s">
         <v>67</v>
       </c>
       <c r="D6" t="s">
-        <v>129</v>
-      </c>
-      <c r="E6" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+        <v>128</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>262</v>
+        <v>226</v>
       </c>
       <c r="C7" t="s">
         <v>68</v>
       </c>
       <c r="D7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E7" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>263</v>
+        <v>227</v>
       </c>
       <c r="C8" t="s">
         <v>69</v>
       </c>
       <c r="D8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E8" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>245</v>
+        <v>213</v>
       </c>
       <c r="C9" t="s">
         <v>70</v>
       </c>
       <c r="D9" t="s">
-        <v>193</v>
+        <v>246</v>
       </c>
       <c r="E9" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>273</v>
+        <v>234</v>
       </c>
       <c r="C10" t="s">
         <v>71</v>
       </c>
       <c r="D10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E10" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>207</v>
+        <v>185</v>
       </c>
       <c r="C11" t="s">
         <v>72</v>
       </c>
       <c r="D11" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E11" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>206</v>
+        <v>184</v>
       </c>
       <c r="C12" t="s">
         <v>73</v>
       </c>
       <c r="D12" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E12" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" t="s">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>231</v>
+        <v>205</v>
       </c>
       <c r="C13" t="s">
         <v>74</v>
       </c>
       <c r="D13" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E13" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>211</v>
+        <v>189</v>
       </c>
       <c r="C14" t="s">
         <v>75</v>
       </c>
       <c r="D14" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E14" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" t="s">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>218</v>
+        <v>196</v>
       </c>
       <c r="C15" t="s">
         <v>76</v>
       </c>
       <c r="D15" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E15" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>233</v>
+        <v>207</v>
       </c>
       <c r="C16" t="s">
         <v>77</v>
       </c>
       <c r="D16" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E16" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>242</v>
+        <v>211</v>
       </c>
       <c r="C17" t="s">
         <v>78</v>
       </c>
       <c r="D17" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E17" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>254</v>
+        <v>220</v>
       </c>
       <c r="C18" t="s">
         <v>79</v>
       </c>
       <c r="D18" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E18" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>280</v>
+        <v>240</v>
       </c>
       <c r="C19" t="s">
         <v>80</v>
       </c>
       <c r="D19" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E19" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>208</v>
+        <v>186</v>
       </c>
       <c r="C20" t="s">
         <v>81</v>
       </c>
       <c r="D20" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E20" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>251</v>
+        <v>247</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="2" t="s">
+        <v>217</v>
       </c>
       <c r="B21" t="s">
-        <v>252</v>
+        <v>218</v>
       </c>
       <c r="C21" t="s">
         <v>82</v>
       </c>
       <c r="D21" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E21" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>265</v>
+        <v>229</v>
       </c>
       <c r="C22" t="s">
         <v>83</v>
       </c>
       <c r="D22" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E22" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
       <c r="A23" t="s">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>209</v>
+        <v>187</v>
       </c>
       <c r="C23" t="s">
         <v>84</v>
       </c>
       <c r="D23" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E23" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>278</v>
+        <v>238</v>
       </c>
       <c r="C24" t="s">
         <v>85</v>
       </c>
       <c r="D24" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E24" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>249</v>
+        <v>216</v>
       </c>
       <c r="C25" t="s">
         <v>86</v>
       </c>
       <c r="D25" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E25" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>267</v>
+        <v>230</v>
       </c>
       <c r="C26" t="s">
         <v>87</v>
       </c>
       <c r="D26" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E26" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>253</v>
+        <v>219</v>
       </c>
       <c r="C27" t="s">
         <v>88</v>
       </c>
       <c r="D27" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E27" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>241</v>
+        <v>210</v>
       </c>
       <c r="C28" t="s">
         <v>89</v>
       </c>
       <c r="D28" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E28" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
       <c r="A29" t="s">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>255</v>
+        <v>221</v>
       </c>
       <c r="C29" t="s">
         <v>90</v>
       </c>
       <c r="D29" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E29" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
       <c r="A30" t="s">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>221</v>
+        <v>199</v>
       </c>
       <c r="C30" t="s">
         <v>91</v>
       </c>
       <c r="D30" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E30" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>215</v>
+        <v>193</v>
       </c>
       <c r="C31" t="s">
         <v>92</v>
       </c>
       <c r="D31" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E31" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="2" t="s">
         <v>29</v>
       </c>
       <c r="B32" t="s">
-        <v>237</v>
+        <v>209</v>
       </c>
       <c r="C32" t="s">
         <v>93</v>
       </c>
       <c r="D32" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E32" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>204</v>
+        <v>183</v>
       </c>
       <c r="C33" t="s">
         <v>94</v>
       </c>
       <c r="D33" t="s">
+        <v>154</v>
+      </c>
+      <c r="E33" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>241</v>
+      </c>
+      <c r="C34" t="s">
+        <v>169</v>
+      </c>
+      <c r="D34" t="s">
         <v>155</v>
       </c>
-      <c r="E33" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>32</v>
-      </c>
-      <c r="B34" t="s">
-        <v>281</v>
-      </c>
-      <c r="C34" t="s">
-        <v>175</v>
-      </c>
-      <c r="D34" t="s">
-        <v>156</v>
-      </c>
       <c r="E34" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>210</v>
+        <v>188</v>
       </c>
       <c r="C35" t="s">
         <v>95</v>
       </c>
       <c r="D35" t="s">
+        <v>156</v>
+      </c>
+      <c r="E35" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>225</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D36" t="s">
         <v>157</v>
       </c>
-      <c r="E35" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>34</v>
-      </c>
-      <c r="B36" t="s">
-        <v>261</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="D36" t="s">
-        <v>158</v>
-      </c>
-      <c r="E36" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+      <c r="E36" s="2" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>246</v>
+        <v>214</v>
       </c>
       <c r="C37" t="s">
         <v>96</v>
       </c>
       <c r="E37" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>271</v>
+        <v>268</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="1" t="s">
+        <v>232</v>
       </c>
       <c r="B38" t="s">
-        <v>272</v>
+        <v>233</v>
       </c>
       <c r="C38" t="s">
         <v>97</v>
       </c>
       <c r="E38" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B39" t="s">
-        <v>216</v>
+        <v>194</v>
       </c>
       <c r="C39" t="s">
         <v>98</v>
       </c>
       <c r="E39" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B40" t="s">
-        <v>235</v>
+        <v>208</v>
       </c>
       <c r="C40" t="s">
         <v>99</v>
       </c>
       <c r="E40" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B41" t="s">
-        <v>269</v>
+        <v>231</v>
       </c>
       <c r="C41" t="s">
         <v>100</v>
       </c>
       <c r="E41" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B42" t="s">
-        <v>248</v>
+        <v>215</v>
       </c>
       <c r="C42" t="s">
         <v>101</v>
       </c>
-      <c r="E42" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
+      <c r="E42" s="2" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="2" t="s">
         <v>40</v>
       </c>
       <c r="B43" t="s">
-        <v>274</v>
+        <v>235</v>
       </c>
       <c r="C43" t="s">
         <v>102</v>
       </c>
       <c r="E43" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="3" t="s">
         <v>41</v>
       </c>
       <c r="B44" t="s">
-        <v>203</v>
+        <v>182</v>
       </c>
       <c r="C44" t="s">
         <v>103</v>
       </c>
       <c r="E44" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="1" t="s">
         <v>42</v>
       </c>
       <c r="B45" t="s">
-        <v>214</v>
+        <v>192</v>
       </c>
       <c r="C45" t="s">
         <v>104</v>
       </c>
       <c r="E45" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="1" t="s">
         <v>43</v>
       </c>
       <c r="B46" t="s">
-        <v>239</v>
+        <v>272</v>
       </c>
       <c r="C46" t="s">
         <v>105</v>
       </c>
       <c r="E46" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B47" t="s">
-        <v>213</v>
+        <v>191</v>
       </c>
       <c r="C47" t="s">
         <v>106</v>
       </c>
       <c r="E47" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="2" t="s">
         <v>45</v>
       </c>
       <c r="B48" t="s">
-        <v>217</v>
+        <v>195</v>
       </c>
       <c r="C48" t="s">
         <v>107</v>
       </c>
       <c r="E48" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="1" t="s">
         <v>46</v>
       </c>
       <c r="B49" t="s">
-        <v>258</v>
+        <v>223</v>
       </c>
       <c r="C49" t="s">
         <v>108</v>
       </c>
       <c r="E49" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="1" t="s">
         <v>47</v>
       </c>
       <c r="B50" t="s">
-        <v>224</v>
+        <v>201</v>
       </c>
       <c r="C50" t="s">
-        <v>197</v>
+        <v>176</v>
       </c>
       <c r="E50" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
       <c r="A51" t="s">
         <v>48</v>
       </c>
       <c r="B51" t="s">
-        <v>232</v>
+        <v>206</v>
       </c>
       <c r="C51" t="s">
         <v>109</v>
       </c>
       <c r="E51" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
       <c r="A52" t="s">
         <v>49</v>
       </c>
       <c r="B52" t="s">
-        <v>264</v>
+        <v>228</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E52" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" s="1" t="s">
         <v>50</v>
       </c>
       <c r="B53" t="s">
-        <v>276</v>
+        <v>237</v>
       </c>
       <c r="C53" t="s">
         <v>110</v>
       </c>
       <c r="E53" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" s="3" t="s">
         <v>51</v>
       </c>
       <c r="B54" t="s">
-        <v>220</v>
+        <v>198</v>
       </c>
       <c r="C54" t="s">
         <v>111</v>
       </c>
       <c r="E54" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" s="1" t="s">
         <v>52</v>
       </c>
       <c r="B55" t="s">
-        <v>259</v>
+        <v>224</v>
       </c>
       <c r="C55" t="s">
         <v>112</v>
       </c>
-      <c r="E55" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
+      <c r="E55" s="2" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" s="1" t="s">
         <v>53</v>
       </c>
       <c r="B56" t="s">
-        <v>222</v>
+        <v>200</v>
       </c>
       <c r="C56" t="s">
         <v>113</v>
       </c>
       <c r="E56" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" s="2" t="s">
         <v>54</v>
       </c>
       <c r="B57" t="s">
-        <v>244</v>
+        <v>212</v>
       </c>
       <c r="C57" t="s">
         <v>114</v>
       </c>
       <c r="E57" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
       <c r="A58" t="s">
         <v>55</v>
       </c>
       <c r="B58" t="s">
-        <v>212</v>
+        <v>190</v>
       </c>
       <c r="C58" t="s">
+        <v>289</v>
+      </c>
+      <c r="E58" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B59" t="s">
+        <v>203</v>
+      </c>
+      <c r="C59" t="s">
         <v>115</v>
       </c>
-      <c r="E58" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>56</v>
-      </c>
-      <c r="B59" t="s">
-        <v>227</v>
-      </c>
-      <c r="C59" t="s">
+      <c r="E59" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B60" t="s">
+        <v>222</v>
+      </c>
+      <c r="C60" t="s">
         <v>116</v>
       </c>
-      <c r="E59" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>57</v>
-      </c>
-      <c r="B60" t="s">
-        <v>256</v>
-      </c>
-      <c r="C60" t="s">
+      <c r="E60" s="2" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B61" t="s">
+        <v>236</v>
+      </c>
+      <c r="C61" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="E60" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>58</v>
-      </c>
-      <c r="B61" t="s">
-        <v>275</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="E61" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
+      <c r="E61" s="2" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" s="1" t="s">
         <v>59</v>
       </c>
       <c r="B62" t="s">
-        <v>219</v>
+        <v>197</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E62" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" s="1" t="s">
         <v>60</v>
       </c>
       <c r="B63" t="s">
-        <v>284</v>
+        <v>243</v>
       </c>
       <c r="C63" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="E63" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B64" t="s">
+        <v>202</v>
+      </c>
+      <c r="C64" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="E63" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>61</v>
-      </c>
-      <c r="B64" t="s">
-        <v>226</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>122</v>
-      </c>
       <c r="E64" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
     </row>
   </sheetData>

--- a/记忆实战/64卦与36计.xlsx
+++ b/记忆实战/64卦与36计.xlsx
@@ -265,14 +265,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>耳朵</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>红旗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>鱼钩</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -281,10 +273,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>拐杖</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>葫芦</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -297,14 +285,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>小叔</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>果果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>药膳</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -497,10 +477,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>女儿</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>围魏救赵</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -655,10 +631,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>小叔去泰国代购李子，回来后变成了桃子</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>超级大树长上云稍</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -667,14 +639,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>偷听到要借刀杀了五里屯的人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>吕蒙在荆州插满旗帜等待关羽进攻</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>大饥荒没东西吃，趁起火，用鱼钩钓来好多生活必需品</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -983,10 +947,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>胡老师拄着拐杖往地上一敲就出水</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>文萃报上说发现了一条龙，在沼泽地里</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2629,7 +2589,589 @@
   </si>
   <si>
     <r>
-      <t>女儿去</t>
+      <t>律师做了辩护，但结果仍未可知，红颜</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>祸水</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>选</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>择</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>一只很</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>火</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>的猴子穿上皮</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>革</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>登场</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>风</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>干的牛肉</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>擂</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>成粉末每日服用有</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>益</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>身体</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>米老鼠跑到</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>山</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>上的沼</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>泽</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>里寻找</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>损</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>坏的唐老鸭</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>蹇叔吃了三九胃泰靠在一颗</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>水杉</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>上不哭了</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>晋商找了个</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>伙</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>计在</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>地</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>下钱庄倒卖珊瑚</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>疯子</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>教导小孩从小要诚立身，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>终</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>得</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>福</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>报</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>同程网发了好多代金券可以</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>兑</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>换</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同程杨幂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>吴琳小师妹用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>火</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>攻打败了梅超</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>风</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，问</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>鼎</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>武林</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>硫酸已经泼到脸上，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>水火</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>不容，切忌用水冲</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>看到水雷借伞把人杀了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>海贼旗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地上莫名其妙出水了，升起一个海贼旗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>我在</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>山水</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>公司</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>蒙</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>着眼，以逸待劳</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>驴儿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>骑着</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>驴儿</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>去</t>
     </r>
     <r>
       <rPr>
@@ -2676,492 +3218,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>律师做了辩护，但结果仍未可知，红颜</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>祸水</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>选</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>择</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>一只很</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>火</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>的猴子穿上皮</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>革</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>登场</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>风</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>干的牛肉</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>擂</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>成粉末每日服用有</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>益</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>身体</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>米老鼠跑到</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>山</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>上的沼</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>泽</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>里寻找</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>损</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>坏的唐老鸭</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>蹇叔吃了三九胃泰靠在一颗</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>水杉</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>上不哭了</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>晋商找了个</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>伙</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>计在</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>地</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>下钱庄倒卖珊瑚</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>疯子</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>教导小孩从小要诚立身，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>终</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>得</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>福</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>报</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>同程网发了好多代金券可以</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>兑</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>换</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>同程杨幂</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>吴琳小师妹用</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>火</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>攻打败了梅超</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>风</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>，问</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>鼎</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>武林</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>硫酸已经泼到脸上，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>水火</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>不容，切忌用水冲</t>
-    </r>
+    <t>幺幺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>幺幺去泰国代购李子，回来后变成了桃子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>幺儿</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3557,8 +3622,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="M56" sqref="M56"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -3568,16 +3633,16 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="C1" t="s">
         <v>62</v>
       </c>
       <c r="D1" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="E1" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -3585,16 +3650,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="C2" t="s">
         <v>63</v>
       </c>
       <c r="D2" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="E2" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -3602,16 +3667,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="C3" t="s">
-        <v>64</v>
+        <v>281</v>
       </c>
       <c r="D3" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="E3" t="s">
-        <v>165</v>
+        <v>282</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -3619,16 +3684,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="C4" t="s">
-        <v>65</v>
+        <v>286</v>
       </c>
       <c r="D4" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="E4" t="s">
-        <v>166</v>
+        <v>285</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -3636,16 +3701,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="C5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D5" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="E5" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -3653,16 +3718,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="C6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D6" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -3670,16 +3735,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="C7" t="s">
-        <v>68</v>
+        <v>283</v>
       </c>
       <c r="D7" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="E7" t="s">
-        <v>244</v>
+        <v>284</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -3687,16 +3752,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="C8" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D8" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="E8" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -3704,16 +3769,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="C9" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D9" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="E9" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -3721,16 +3786,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="C10" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D10" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="E10" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -3738,16 +3803,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="C11" t="s">
-        <v>72</v>
+        <v>289</v>
       </c>
       <c r="D11" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="E11" t="s">
-        <v>162</v>
+        <v>290</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -3755,16 +3820,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="C12" t="s">
-        <v>73</v>
+        <v>291</v>
       </c>
       <c r="D12" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="E12" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -3772,16 +3837,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="C13" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="D13" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="E13" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -3789,16 +3854,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="C14" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="D14" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="E14" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -3806,16 +3871,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="C15" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="D15" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="E15" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -3823,16 +3888,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="C16" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="D16" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="E16" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -3840,16 +3905,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="C17" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="D17" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="E17" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -3857,16 +3922,16 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="C18" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="D18" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="E18" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -3874,16 +3939,16 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="C19" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="D19" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="E19" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -3891,33 +3956,33 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="C20" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D20" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="E20" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="2" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="B21" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="C21" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="D21" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="E21" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -3925,16 +3990,16 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="C22" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="D22" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="E22" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -3942,16 +4007,16 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="C23" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="D23" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="E23" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -3959,16 +4024,16 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="C24" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="D24" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="E24" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -3976,16 +4041,16 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="C25" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="D25" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="E25" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -3993,16 +4058,16 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="C26" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="D26" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="E26" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -4010,16 +4075,16 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="C27" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="D27" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="E27" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -4027,16 +4092,16 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="C28" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="D28" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="E28" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -4044,16 +4109,16 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="C29" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D29" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="E29" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -4061,16 +4126,16 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="C30" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="D30" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="E30" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -4078,16 +4143,16 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="C31" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="D31" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="E31" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -4095,16 +4160,16 @@
         <v>29</v>
       </c>
       <c r="B32" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="C32" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="D32" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="E32" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -4112,16 +4177,16 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="C33" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="D33" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="E33" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -4129,16 +4194,16 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="C34" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="D34" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="E34" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -4146,16 +4211,16 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="C35" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="D35" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="E35" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -4163,16 +4228,16 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="D36" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>267</v>
+        <v>257</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -4180,27 +4245,27 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="C37" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="E37" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="1" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="B38" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="C38" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="E38" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -4208,13 +4273,13 @@
         <v>36</v>
       </c>
       <c r="B39" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="C39" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="E39" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -4222,13 +4287,13 @@
         <v>37</v>
       </c>
       <c r="B40" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="C40" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="E40" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -4236,13 +4301,13 @@
         <v>38</v>
       </c>
       <c r="B41" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
       <c r="C41" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="E41" t="s">
-        <v>284</v>
+        <v>273</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -4250,13 +4315,13 @@
         <v>39</v>
       </c>
       <c r="B42" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="C42" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>283</v>
+        <v>272</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -4264,13 +4329,13 @@
         <v>40</v>
       </c>
       <c r="B43" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="C43" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="E43" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -4278,13 +4343,13 @@
         <v>41</v>
       </c>
       <c r="B44" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="C44" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="E44" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -4292,13 +4357,13 @@
         <v>42</v>
       </c>
       <c r="B45" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="C45" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="E45" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -4306,13 +4371,13 @@
         <v>43</v>
       </c>
       <c r="B46" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="C46" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="E46" t="s">
-        <v>273</v>
+        <v>263</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -4320,13 +4385,13 @@
         <v>44</v>
       </c>
       <c r="B47" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="C47" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="E47" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -4334,13 +4399,13 @@
         <v>45</v>
       </c>
       <c r="B48" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="C48" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="E48" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -4348,13 +4413,13 @@
         <v>46</v>
       </c>
       <c r="B49" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="C49" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="E49" t="s">
-        <v>282</v>
+        <v>271</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -4362,13 +4427,13 @@
         <v>47</v>
       </c>
       <c r="B50" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="C50" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="E50" t="s">
-        <v>290</v>
+        <v>279</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -4376,13 +4441,13 @@
         <v>48</v>
       </c>
       <c r="B51" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="C51" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="E51" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -4390,13 +4455,13 @@
         <v>49</v>
       </c>
       <c r="B52" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="E52" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -4404,13 +4469,13 @@
         <v>50</v>
       </c>
       <c r="B53" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="C53" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="E53" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -4418,13 +4483,13 @@
         <v>51</v>
       </c>
       <c r="B54" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="C54" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="E54" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -4432,13 +4497,13 @@
         <v>52</v>
       </c>
       <c r="B55" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="C55" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>276</v>
+        <v>266</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -4446,13 +4511,13 @@
         <v>53</v>
       </c>
       <c r="B56" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="C56" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="E56" t="s">
-        <v>277</v>
+        <v>267</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -4460,13 +4525,13 @@
         <v>54</v>
       </c>
       <c r="B57" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="C57" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="E57" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -4474,13 +4539,13 @@
         <v>55</v>
       </c>
       <c r="B58" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="C58" t="s">
-        <v>289</v>
+        <v>278</v>
       </c>
       <c r="E58" t="s">
-        <v>288</v>
+        <v>277</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -4488,13 +4553,13 @@
         <v>56</v>
       </c>
       <c r="B59" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="C59" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="E59" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -4502,13 +4567,13 @@
         <v>57</v>
       </c>
       <c r="B60" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="C60" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -4516,13 +4581,13 @@
         <v>58</v>
       </c>
       <c r="B61" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -4530,13 +4595,13 @@
         <v>59</v>
       </c>
       <c r="B62" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>122</v>
+        <v>287</v>
       </c>
       <c r="E62" t="s">
-        <v>280</v>
+        <v>288</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -4544,13 +4609,13 @@
         <v>60</v>
       </c>
       <c r="B63" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="E63" t="s">
-        <v>291</v>
+        <v>280</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -4558,13 +4623,13 @@
         <v>61</v>
       </c>
       <c r="B64" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="E64" t="s">
-        <v>281</v>
+        <v>270</v>
       </c>
     </row>
   </sheetData>

--- a/记忆实战/64卦与36计.xlsx
+++ b/记忆实战/64卦与36计.xlsx
@@ -3089,12 +3089,97 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>地上莫名其妙出水了，升起一个海贼旗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>我在</t>
+    <t>公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>驴儿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>骑着</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>驴儿</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>去</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>雷山</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>拜佛被我党记</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>小过</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>了</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>幺幺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>幺幺去泰国代购李子，回来后变成了桃子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>幺儿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>我天天在</t>
     </r>
     <r>
       <rPr>
@@ -3136,97 +3221,53 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>着眼，以逸待劳</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>驴儿</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>骑着</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>驴儿</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>去</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>雷山</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>拜佛被我党记</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>小过</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>了</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>幺幺</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>幺幺去泰国代购李子，回来后变成了桃子</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>幺儿</t>
+      <t>着眼，不用干活，躺赢。以逸待劳</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>地</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>上莫名其妙出</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>水</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>了，升起一个海贼旗</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3623,7 +3664,7 @@
   <dimension ref="A1:E64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -3687,13 +3728,13 @@
         <v>171</v>
       </c>
       <c r="C4" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D4" t="s">
         <v>120</v>
       </c>
       <c r="E4" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -3743,8 +3784,8 @@
       <c r="D7" t="s">
         <v>123</v>
       </c>
-      <c r="E7" t="s">
-        <v>284</v>
+      <c r="E7" s="2" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -3806,13 +3847,13 @@
         <v>176</v>
       </c>
       <c r="C11" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D11" t="s">
         <v>126</v>
       </c>
       <c r="E11" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -3823,7 +3864,7 @@
         <v>175</v>
       </c>
       <c r="C12" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D12" t="s">
         <v>127</v>
@@ -4598,10 +4639,10 @@
         <v>188</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="E62" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="63" spans="1:5">
